--- a/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_2d_prj_origin_gaussian_kernel.xlsx
+++ b/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_2d_prj_origin_gaussian_kernel.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="origin_gaussian_sr_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="origin_gaussian_sr_0.5" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -467,16 +468,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>95.28023598820059</v>
+        <v>94.95575221238938</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1223919801078106</v>
+        <v>0.121979222826</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9528023598820059</v>
+        <v>0.9495575221238939</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9521759151047255</v>
+        <v>0.9490091458239691</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +487,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>94.5141393956695</v>
+        <v>93.53999602072682</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1578210052102648</v>
+        <v>0.2380654731942135</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9451413939566951</v>
+        <v>0.9353999602072683</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9423629893748851</v>
+        <v>0.9259592856132166</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +506,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93.39233038348083</v>
+        <v>96.43067846607669</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1831638741311811</v>
+        <v>0.1077864833544785</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9339233038348083</v>
+        <v>0.9643067846607669</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9255590158473168</v>
+        <v>0.9635720637087066</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +525,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>93.21533923303835</v>
+        <v>89.7051877611398</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1841854962942307</v>
+        <v>0.2948061111198816</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9321533923303834</v>
+        <v>0.897051877611398</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9296809885404198</v>
+        <v>0.8875626124413303</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +544,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>78.85336378342373</v>
+        <v>79.3698907429995</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5252952768705048</v>
+        <v>0.519778919031766</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7885336378342374</v>
+        <v>0.793698907429995</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7732718462624302</v>
+        <v>0.7800000319702916</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +563,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>91.59516950838675</v>
+        <v>91.21272675369164</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3127988813988243</v>
+        <v>0.2556719416626341</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9159516950838675</v>
+        <v>0.9121272675369164</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8962516479894844</v>
+        <v>0.9005096598400426</v>
       </c>
     </row>
     <row r="8">
@@ -581,16 +582,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>92.89085545722715</v>
+        <v>90.61946902654867</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1818194366719884</v>
+        <v>0.2413067819492426</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9289085545722713</v>
+        <v>0.9061946902654867</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9280953267989533</v>
+        <v>0.8975408334294936</v>
       </c>
     </row>
     <row r="9">
@@ -600,16 +601,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>93.45132743362832</v>
+        <v>94.60176991150442</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1490141755493823</v>
+        <v>0.1359895734732466</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9345132743362832</v>
+        <v>0.9460176991150442</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9338923377107609</v>
+        <v>0.9446310090868003</v>
       </c>
     </row>
     <row r="10">
@@ -619,16 +620,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>93.5693215339233</v>
+        <v>91.79941002949852</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1563313222567861</v>
+        <v>0.2169557779600533</v>
       </c>
       <c r="D10" t="n">
-        <v>0.935693215339233</v>
+        <v>0.9179941002949853</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9336188626600463</v>
+        <v>0.9129298512442041</v>
       </c>
     </row>
     <row r="11">
@@ -638,16 +639,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>90.26548672566372</v>
+        <v>92.44837758112094</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2905354169759392</v>
+        <v>0.1953367583189068</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9026548672566372</v>
+        <v>0.9244837758112094</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8863502854227526</v>
+        <v>0.9210337470504844</v>
       </c>
     </row>
     <row r="12">
@@ -657,16 +658,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>82.83203141895692</v>
+        <v>83.53999602072682</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6690647104083232</v>
+        <v>0.6288491848392368</v>
       </c>
       <c r="D12" t="n">
-        <v>0.828320314189569</v>
+        <v>0.8353999602072681</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8190804954403001</v>
+        <v>0.8264992078355965</v>
       </c>
     </row>
     <row r="13">
@@ -676,16 +677,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>81.65191740412979</v>
+        <v>83.68731563421829</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6591621190484147</v>
+        <v>0.5329274564554605</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8165191740412979</v>
+        <v>0.8368731563421828</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8022560756208813</v>
+        <v>0.8234233936598745</v>
       </c>
     </row>
     <row r="14">
@@ -695,16 +696,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>98.93805309734513</v>
+        <v>99.32153392330383</v>
       </c>
       <c r="C14" t="n">
-        <v>0.03652402837208987</v>
+        <v>0.03191625540229666</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9893805309734514</v>
+        <v>0.9932153392330383</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9893904939076655</v>
+        <v>0.9932111850753552</v>
       </c>
     </row>
     <row r="15">
@@ -714,16 +715,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>99.82300884955752</v>
+        <v>99.5575221238938</v>
       </c>
       <c r="C15" t="n">
-        <v>0.008083699064302152</v>
+        <v>0.01123182991721213</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9982300884955752</v>
+        <v>0.9955752212389382</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9982310575367052</v>
+        <v>0.9955931417939429</v>
       </c>
     </row>
     <row r="16">
@@ -733,16 +734,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.43362831858407</v>
+        <v>97.10914454277285</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05418425965903234</v>
+        <v>0.06460271601337453</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9743362831858408</v>
+        <v>0.9710914454277286</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9739769839656015</v>
+        <v>0.9703667951591258</v>
       </c>
     </row>
     <row r="17">
@@ -752,16 +753,366 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>91.84708056874773</v>
+        <v>91.85991805004078</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2460250454679383</v>
+        <v>0.2398136323678669</v>
       </c>
       <c r="D17" t="n">
-        <v>0.918470805687477</v>
+        <v>0.918599180500408</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9122796214788618</v>
+        <v>0.912789464248829</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>91.68141592920354</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2299336661055956</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9168141592920354</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9149082611969085</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>85.46881893441984</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3434792569110868</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8546881893441984</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8511281232035175</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>91.9774392512046</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1893041897731261</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.919774392512046</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9187070612967723</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>88.55630239015909</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2837617547018453</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8855630239015909</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8851974056926959</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>68.3716122111783</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9442701042396948</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.683716122111783</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6555875008078095</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>82.8460453810154</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6477168605856908</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.828460453810154</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8071399924541154</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>88.40777169352677</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.306057486962527</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8840777169352677</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.883305577902834</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>90.97345132743362</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2218182107318474</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9097345132743362</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9081331852580472</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>88.85042258151023</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2997420850083775</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8885042258151022</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8841133500394835</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>83.27520134257216</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4404865164042955</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8327520134257217</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8230917919847256</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>79.38139603283766</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.7257999382064251</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7938139603283766</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7946530173322539</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>80.56462426145555</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5580850035534241</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8056462426145554</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7938343303466917</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>95.04424778761062</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1220253924198914</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9504424778761063</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9502541305700509</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>92.12389380530973</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.202622843438697</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9212389380530974</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9190170489484336</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>97.40412979351032</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.07192123893376751</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9740412979351033</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9738425442208685</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>86.99511818152982</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3724683031984196</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8699511818152982</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8641942214170139</v>
       </c>
     </row>
   </sheetData>
